--- a/app-server/data.xlsx
+++ b/app-server/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="quizs" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="users" r:id="rId6" sheetId="3"/>
+    <sheet name="quizs" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="144">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -237,6 +237,222 @@
   </si>
   <si>
     <t xml:space="preserve">table</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>user1@test.com</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>010-1111-1111</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>user2@test.com</t>
+  </si>
+  <si>
+    <t>010-1111-2222</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>user5</t>
+  </si>
+  <si>
+    <t>user5@test.com</t>
+  </si>
+  <si>
+    <t>010-1111-5555</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>user6</t>
+  </si>
+  <si>
+    <t>user6@test.com</t>
+  </si>
+  <si>
+    <t>010-1111-6666</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>user9</t>
+  </si>
+  <si>
+    <t>user9@test.com</t>
+  </si>
+  <si>
+    <t>010-1111-9999</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>user12</t>
+  </si>
+  <si>
+    <t>user12@test.com</t>
+  </si>
+  <si>
+    <t>010-1212-1111</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>user13</t>
+  </si>
+  <si>
+    <t>user13@test.com</t>
+  </si>
+  <si>
+    <t>010-1113-1111</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>user14</t>
+  </si>
+  <si>
+    <t>user14@test.com</t>
+  </si>
+  <si>
+    <t>010-1114-1111</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>user15</t>
+  </si>
+  <si>
+    <t>user15@test.com</t>
+  </si>
+  <si>
+    <t>010-1115-2222</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>user16</t>
+  </si>
+  <si>
+    <t>user16@test.com</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>user17</t>
+  </si>
+  <si>
+    <t>user17@test.com</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>user18</t>
+  </si>
+  <si>
+    <t>user18@test.com</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>user27</t>
+  </si>
+  <si>
+    <t>user27@test.com</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>table</t>
   </si>
 </sst>
 </file>
@@ -438,409 +654,387 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="1" sqref="B11 D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>13</v>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>71</v>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,보통"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,보통"&amp;12페이지 &amp;P</oddFooter>
-  </headerFooter>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>